--- a/perf_results.xlsx
+++ b/perf_results.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.877142667770386</v>
+        <v>5.133420467376709</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01011562347412109</v>
+        <v>0.01023483276367188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5746762752532959</v>
+        <v>0.6066503524780273</v>
       </c>
       <c r="E2" t="n">
-        <v>4.489103555679321</v>
+        <v>5.788755893707275</v>
       </c>
       <c r="F2" t="n">
         <v>200</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2003965377807617</v>
+        <v>0.2404730319976807</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2003965377807617</v>
+        <v>0.2404730319976807</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.8476459980011</v>
+        <v>52.86789798736572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07632088661193848</v>
+        <v>0.07901811599731445</v>
       </c>
       <c r="D4" t="n">
-        <v>5.676680088043213</v>
+        <v>5.585498094558716</v>
       </c>
       <c r="E4" t="n">
-        <v>33.86032843589783</v>
+        <v>58.88949418067932</v>
       </c>
       <c r="F4" t="n">
-        <v>1537</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="5">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.65989542007446</v>
+        <v>33.35113787651062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01912832260131836</v>
+        <v>0.02010226249694824</v>
       </c>
       <c r="D5" t="n">
-        <v>1.046591281890869</v>
+        <v>1.087490320205688</v>
       </c>
       <c r="E5" t="n">
-        <v>18.77896952629089</v>
+        <v>34.52986168861389</v>
       </c>
       <c r="F5" t="n">
         <v>379</v>
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.48498320579529</v>
+        <v>47.25594401359558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07573127746582031</v>
+        <v>0.07221770286560059</v>
       </c>
       <c r="D6" t="n">
-        <v>4.533211231231689</v>
+        <v>4.555901527404785</v>
       </c>
       <c r="E6" t="n">
-        <v>30.30722856521606</v>
+        <v>52.17206954956055</v>
       </c>
       <c r="F6" t="n">
         <v>1234</v>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1882679462432861</v>
+        <v>0.1918485164642334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1892690658569336</v>
+        <v>0.1928479671478271</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1889655590057373</v>
+        <v>0.199887752532959</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1889655590057373</v>
+        <v>0.199887752532959</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>

--- a/perf_results.xlsx
+++ b/perf_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sentiment_analysis_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>phrase_total_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>num_documents</t>
         </is>
@@ -472,18 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.133420467376709</v>
+        <v>4.571932554244995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01023483276367188</v>
+        <v>0.01006841659545898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6066503524780273</v>
+        <v>0.5918300151824951</v>
       </c>
       <c r="E2" t="n">
-        <v>5.788755893707275</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>5.275310754776001</v>
+      </c>
+      <c r="G2" t="n">
         <v>200</v>
       </c>
     </row>
@@ -494,7 +502,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2404730319976807</v>
+        <v>0.1751415729522705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -503,9 +511,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2404730319976807</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.1751415729522705</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,19 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.86789798736572</v>
+        <v>31.57573652267456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07901811599731445</v>
+        <v>0.07861685752868652</v>
       </c>
       <c r="D4" t="n">
-        <v>5.585498094558716</v>
+        <v>5.576143264770508</v>
       </c>
       <c r="E4" t="n">
-        <v>58.88949418067932</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1564</v>
+        <v>38.08031034469604</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1568</v>
       </c>
     </row>
     <row r="5">
@@ -538,18 +552,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.35113787651062</v>
+        <v>17.58267879486084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02010226249694824</v>
+        <v>0.0181279182434082</v>
       </c>
       <c r="D5" t="n">
-        <v>1.087490320205688</v>
+        <v>1.148977041244507</v>
       </c>
       <c r="E5" t="n">
-        <v>34.52986168861389</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>18.93497395515442</v>
+      </c>
+      <c r="G5" t="n">
         <v>379</v>
       </c>
     </row>
@@ -560,18 +577,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.25594401359558</v>
+        <v>28.74987936019897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07221770286560059</v>
+        <v>0.07360339164733887</v>
       </c>
       <c r="D6" t="n">
-        <v>4.555901527404785</v>
+        <v>4.448583364486694</v>
       </c>
       <c r="E6" t="n">
-        <v>52.17206954956055</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>33.99632430076599</v>
+      </c>
+      <c r="G6" t="n">
         <v>1234</v>
       </c>
     </row>
@@ -582,18 +602,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1918485164642334</v>
+        <v>0.1807291507720947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00099945068359375</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1928479671478271</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0.1817295551300049</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -604,7 +627,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.199887752532959</v>
+        <v>0.1737387180328369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -613,9 +636,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.199887752532959</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0.1747379302978516</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
